--- a/Lab1_D3Report/analysis/draft1.xlsx
+++ b/Lab1_D3Report/analysis/draft1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\APLabR_TaLEs\Lab1_D3Report\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE3CC71-7EB7-41D5-843A-BB944EE7E4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829D3CC6-7247-4F50-AB19-7E5C29C9D53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实验一" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,10 @@
   </si>
   <si>
     <t>PBS2 反射功率</t>
+  </si>
+  <si>
+    <t>单位换算/mW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -537,22 +541,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +571,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -581,8 +589,12 @@
       <c r="E2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <f>10^(D2/10)</f>
+        <v>8.1658237135859224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -596,8 +608,12 @@
       <c r="E3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <f t="shared" ref="F3:F43" si="0">10^(D3/10)</f>
+        <v>31.988951096914004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -611,8 +627,12 @@
       <c r="E4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>38.725764492161751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -626,8 +646,12 @@
       <c r="E5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>38.018939632056139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -641,8 +665,12 @@
       <c r="E6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.68233869414166959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -656,8 +684,12 @@
       <c r="E7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.14387985782558452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -673,8 +705,12 @@
       <c r="E8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.3212956341865749E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -690,8 +726,12 @@
       <c r="E9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.2857590543374946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -707,8 +747,12 @@
       <c r="E10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.58076441752131203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -724,8 +768,12 @@
       <c r="E11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.26791683248190318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -741,8 +789,12 @@
       <c r="E12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3.9264493539959986E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -758,8 +810,12 @@
       <c r="E13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.27227013080779122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -775,8 +831,12 @@
       <c r="E14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.55590425727040349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -792,8 +852,12 @@
       <c r="E15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.32508729738543435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -809,8 +873,12 @@
       <c r="E16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3.4673685045253149E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -826,8 +894,12 @@
       <c r="E17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.31477483141013152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -843,8 +915,12 @@
       <c r="E18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.58210321777087137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -860,8 +936,12 @@
       <c r="E19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.22233098906514029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -877,8 +957,12 @@
       <c r="E20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>6.8391164728142887E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -894,8 +978,12 @@
       <c r="E21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.27039583641088438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -911,8 +999,12 @@
       <c r="E22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.62661386467233537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
@@ -928,8 +1020,12 @@
       <c r="E23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.30690219883911568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
@@ -945,8 +1041,12 @@
       <c r="E24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.614358556826484E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -960,7 +1060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -974,7 +1074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -990,8 +1090,12 @@
       <c r="E27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>2.93764965196153E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1007,8 +1111,12 @@
       <c r="E28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>11.376272858234312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1024,8 +1132,12 @@
       <c r="E29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>23.173946499684792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1041,8 +1153,12 @@
       <c r="E30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>14.723125024327192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1058,8 +1174,12 @@
       <c r="E31" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>7.5857757502918385E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1075,8 +1195,12 @@
       <c r="E32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>11.857687481671608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -1092,8 +1216,12 @@
       <c r="E33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>25.52701302661248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -1109,8 +1237,12 @@
       <c r="E34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>8.8920111785794891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1126,8 +1258,12 @@
       <c r="E35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>3.8018939632056123E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1143,8 +1279,12 @@
       <c r="E36" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>13.061708881318419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -1160,8 +1300,12 @@
       <c r="E37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>25.292979964461452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12</v>
       </c>
@@ -1177,8 +1321,12 @@
       <c r="E38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>12.64736347471151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -1194,8 +1342,12 @@
       <c r="E39" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>5.3579665751334132E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
@@ -1211,8 +1363,12 @@
       <c r="E40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>12.764388088113442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>15</v>
       </c>
@@ -1228,8 +1384,12 @@
       <c r="E41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>25.882129151530918</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16</v>
       </c>
@@ -1245,8 +1405,12 @@
       <c r="E42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>11.939881044642732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>17</v>
       </c>
@@ -1261,6 +1425,10 @@
       </c>
       <c r="E43" t="s">
         <v>45</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1.4288939585111028E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lab1_D3Report/analysis/draft1.xlsx
+++ b/Lab1_D3Report/analysis/draft1.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\APLabR_TaLEs\Lab1_D3Report\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829D3CC6-7247-4F50-AB19-7E5C29C9D53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E719FB0-94E2-4D14-8D62-2126B7C64939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实验一" sheetId="1" r:id="rId1"/>
+    <sheet name="实验二" sheetId="2" r:id="rId2"/>
+    <sheet name="实验三" sheetId="3" r:id="rId3"/>
+    <sheet name="实验四" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +216,79 @@
   </si>
   <si>
     <t>单位换算/mW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD_M激光器功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总需要衰减值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOA_M可调衰减片理论需调节衰减值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOA_M可调衰减片实际需调节衰减值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QKD 扫描M路SPD_M探测器数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD_M探测器效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M 路到达公共信道时为单光子，探测器计数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M 路扫描，SPD_M 计数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H 路扫描，SPD_H 计数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V 路扫描，SPD_V 计数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P 路扫描，SPD_P 计数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QKD 系统软件统计密钥率</t>
+  </si>
+  <si>
+    <t>QKD 系统软件统计误码率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QKD 系统误码估计采样率</t>
+  </si>
+  <si>
+    <t>手动误码率计算时所得数据误码率</t>
+  </si>
+  <si>
+    <t>bits/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,11 +332,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -543,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1444,4 +1521,322 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB5C941-2D49-4B09-84DD-7BF505229232}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>10.7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>103.44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>6.7919999999999998</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>6.79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>353000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB02AE54-800F-4229-BDB9-C53F350799B3}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>151300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>151450</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>151425</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>151350</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>150900</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEE2ADB-1A93-45C8-B125-C209EE5028C0}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>37449.14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>1.2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>1.29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>